--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MHA491996\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\std1\Downloads\MuhammadHassam491996-master (4)\MuhammadHassam491996-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{932E1A81-C82D-4207-A1DC-4C2BEA08DC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D382E0-8280-46D2-81D3-A3404EC650F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{B04F4570-C215-4157-9020-0E9049FFEFC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{B04F4570-C215-4157-9020-0E9049FFEFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +38,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Purchased Qty</t>
+  </si>
+  <si>
+    <t>Sale Qty</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Pants</t>
+  </si>
+  <si>
+    <t>Shirts</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Braclet</t>
+  </si>
+  <si>
+    <t>Neckles</t>
+  </si>
+  <si>
+    <t>Rings</t>
+  </si>
+  <si>
+    <t>Belts</t>
+  </si>
+  <si>
+    <t>T-Shirts</t>
+  </si>
+  <si>
+    <t>Purchased Price</t>
+  </si>
+  <si>
+    <t>Purchased Amount</t>
+  </si>
+  <si>
+    <t>Sale Price</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Islamabad</t>
+  </si>
+  <si>
+    <t>Lahore</t>
+  </si>
+  <si>
+    <t>Multan</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Revenue</t>
+  </si>
+  <si>
+    <t>Sum of COGS</t>
+  </si>
+  <si>
+    <t>Sum of Profit</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Sum of Revenue</t>
+  </si>
+  <si>
+    <t>Total Sum of COGS</t>
+  </si>
+  <si>
+    <t>Total Sum of Profit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +207,143 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -82,6 +354,449 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="STUDENT" refreshedDate="45821.945404050923" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{BB45C349-6CEA-4CA6-9405-7A63707FE9A3}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Sr. No." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Shirts"/>
+        <s v="Pants"/>
+        <s v="Shoes"/>
+        <s v="Socks"/>
+        <s v="Watches"/>
+        <s v="Braclet"/>
+        <s v="Neckles"/>
+        <s v="Rings"/>
+        <s v="Belts"/>
+        <s v="T-Shirts"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Purchased Qty" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="800"/>
+    </cacheField>
+    <cacheField name="Purchased Price" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="220" maxValue="5500"/>
+    </cacheField>
+    <cacheField name="Purchased Amount" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="44000" maxValue="1500000"/>
+    </cacheField>
+    <cacheField name="Sale Qty" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="72" maxValue="721"/>
+    </cacheField>
+    <cacheField name="Sale Price" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="275" maxValue="6875"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="19800" maxValue="1627500"/>
+    </cacheField>
+    <cacheField name="Stock" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="265"/>
+    </cacheField>
+    <cacheField name="COGS" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15840" maxValue="1302000"/>
+    </cacheField>
+    <cacheField name="Profit" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3960" maxValue="325500"/>
+    </cacheField>
+    <cacheField name="City" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Karachi"/>
+        <s v="Islamabad"/>
+        <s v="Lahore"/>
+        <s v="Multan"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems count="6">
+        <s v="January"/>
+        <s v="March"/>
+        <s v="February"/>
+        <s v="June"/>
+        <s v="April"/>
+        <s v="May"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="500"/>
+    <n v="950"/>
+    <n v="475000"/>
+    <n v="423"/>
+    <n v="1187.5"/>
+    <n v="502312.5"/>
+    <n v="77"/>
+    <n v="401850"/>
+    <n v="100462.5"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <n v="500"/>
+    <n v="1150"/>
+    <n v="575000"/>
+    <n v="235"/>
+    <n v="1437.5"/>
+    <n v="337812.5"/>
+    <n v="265"/>
+    <n v="270250"/>
+    <n v="67562.5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="100"/>
+    <n v="2200"/>
+    <n v="220000"/>
+    <n v="85"/>
+    <n v="2750"/>
+    <n v="233750"/>
+    <n v="15"/>
+    <n v="187000"/>
+    <n v="46750"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <n v="200"/>
+    <n v="220"/>
+    <n v="44000"/>
+    <n v="72"/>
+    <n v="275"/>
+    <n v="19800"/>
+    <n v="128"/>
+    <n v="15840"/>
+    <n v="3960"/>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <n v="250"/>
+    <n v="5500"/>
+    <n v="1375000"/>
+    <n v="112"/>
+    <n v="6875"/>
+    <n v="770000"/>
+    <n v="138"/>
+    <n v="616000"/>
+    <n v="154000"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="450"/>
+    <n v="1500"/>
+    <n v="675000"/>
+    <n v="365"/>
+    <n v="1875"/>
+    <n v="684375"/>
+    <n v="85"/>
+    <n v="547500"/>
+    <n v="136875"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <n v="600"/>
+    <n v="2250"/>
+    <n v="1350000"/>
+    <n v="555"/>
+    <n v="2812.5"/>
+    <n v="1560937.5"/>
+    <n v="45"/>
+    <n v="1248750"/>
+    <n v="312187.5"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <n v="750"/>
+    <n v="2000"/>
+    <n v="1500000"/>
+    <n v="651"/>
+    <n v="2500"/>
+    <n v="1627500"/>
+    <n v="99"/>
+    <n v="1302000"/>
+    <n v="325500"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="8"/>
+    <n v="800"/>
+    <n v="600"/>
+    <n v="480000"/>
+    <n v="721"/>
+    <n v="750"/>
+    <n v="540750"/>
+    <n v="79"/>
+    <n v="432600"/>
+    <n v="108150"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="9"/>
+    <n v="500"/>
+    <n v="1200"/>
+    <n v="600000"/>
+    <n v="298"/>
+    <n v="1500"/>
+    <n v="447000"/>
+    <n v="202"/>
+    <n v="357600"/>
+    <n v="89400"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26962147-D3B9-40D5-BA36-BA2C0A488FDC}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B17:W30" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="-2"/>
+    <field x="12"/>
+  </colFields>
+  <colItems count="21">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="1">
+      <x v="2"/>
+    </i>
+    <i r="1" i="1">
+      <x v="3"/>
+    </i>
+    <i r="1" i="1">
+      <x v="4"/>
+    </i>
+    <i r="1" i="1">
+      <x v="5"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="2">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="2">
+      <x v="3"/>
+    </i>
+    <i r="1" i="2">
+      <x v="4"/>
+    </i>
+    <i r="1" i="2">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Revenue" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of COGS" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{666DE0DB-A432-4BE9-99C8-3C9BA019CEA1}" name="Table1" displayName="Table1" ref="B2:N12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B2:N12" xr:uid="{666DE0DB-A432-4BE9-99C8-3C9BA019CEA1}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{62F911D4-2F06-47AF-A270-FF99F1017F24}" name="Sr. No." dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0AA9C747-B4A8-401A-8208-DCDE7D3B7DD0}" name="Item" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{658E27B8-937D-44DC-98E6-9F3467CD17FF}" name="Purchased Qty" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{2D99312F-3C94-448E-A8D4-52C20D046FB6}" name="Purchased Price" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{D915ACA3-7F6E-4491-9A5E-1FEE904E863C}" name="Purchased Amount" dataDxfId="10" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7CC4523C-034D-41C6-9DD5-EAD206BCC2B1}" name="Sale Qty" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{B3303BF6-8693-445C-BACF-F7CC5EDDD29D}" name="Sale Price" dataDxfId="8" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[Purchased Price]]*125%</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{367D15FB-1C50-40CE-AA9C-F25552DF5E79}" name="Revenue" dataDxfId="7" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{68174B78-854E-43BF-A8A4-44F256D6196A}" name="Stock" dataDxfId="6" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{296EB878-C611-4A49-B2F6-20A240A613D6}" name="COGS" dataDxfId="5" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{209C48DB-9AA4-4FA9-8F59-8BFC641D9195}" name="Profit" dataDxfId="4" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{07DD4F9C-3003-4497-8E44-169EFD6CA472}" name="City" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{E466424B-4755-4F5D-B778-77D23010082E}" name="Month" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66027301-7C0C-46C0-AD97-50C6A0CA229D}">
   <dimension ref="E7:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -1585,4 +2300,1089 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A8CA11-9C1A-4E1A-B499-A9EED5E84CF6}">
+  <dimension ref="B2:W30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>500</v>
+      </c>
+      <c r="E3" s="2">
+        <v>950</v>
+      </c>
+      <c r="F3" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>475000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>423</v>
+      </c>
+      <c r="H3" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>1187.5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>502312.5</v>
+      </c>
+      <c r="J3" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>77</v>
+      </c>
+      <c r="K3" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>401850</v>
+      </c>
+      <c r="L3" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>100462.5</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>500</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1150</v>
+      </c>
+      <c r="F4" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>575000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>235</v>
+      </c>
+      <c r="H4" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>1437.5</v>
+      </c>
+      <c r="I4" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>337812.5</v>
+      </c>
+      <c r="J4" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>265</v>
+      </c>
+      <c r="K4" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>270250</v>
+      </c>
+      <c r="L4" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>67562.5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>220000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>85</v>
+      </c>
+      <c r="H5" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>2750</v>
+      </c>
+      <c r="I5" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>233750</v>
+      </c>
+      <c r="J5" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>187000</v>
+      </c>
+      <c r="L5" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>46750</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2">
+        <v>220</v>
+      </c>
+      <c r="F6" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>44000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>275</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>19800</v>
+      </c>
+      <c r="J6" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>128</v>
+      </c>
+      <c r="K6" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>15840</v>
+      </c>
+      <c r="L6" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>3960</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5500</v>
+      </c>
+      <c r="F7" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>1375000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>112</v>
+      </c>
+      <c r="H7" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>6875</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>770000</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>138</v>
+      </c>
+      <c r="K7" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>616000</v>
+      </c>
+      <c r="L7" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>154000</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2">
+        <v>450</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>675000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>365</v>
+      </c>
+      <c r="H8" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>1875</v>
+      </c>
+      <c r="I8" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>684375</v>
+      </c>
+      <c r="J8" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>85</v>
+      </c>
+      <c r="K8" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>547500</v>
+      </c>
+      <c r="L8" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>136875</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2">
+        <v>600</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2250</v>
+      </c>
+      <c r="F9" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>1350000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>555</v>
+      </c>
+      <c r="H9" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>2812.5</v>
+      </c>
+      <c r="I9" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>1560937.5</v>
+      </c>
+      <c r="J9" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>45</v>
+      </c>
+      <c r="K9" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>1248750</v>
+      </c>
+      <c r="L9" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>312187.5</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>750</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>1500000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>651</v>
+      </c>
+      <c r="H10" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>2500</v>
+      </c>
+      <c r="I10" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>1627500</v>
+      </c>
+      <c r="J10" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>99</v>
+      </c>
+      <c r="K10" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>1302000</v>
+      </c>
+      <c r="L10" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>325500</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>800</v>
+      </c>
+      <c r="E11" s="2">
+        <v>600</v>
+      </c>
+      <c r="F11" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>480000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>721</v>
+      </c>
+      <c r="H11" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>750</v>
+      </c>
+      <c r="I11" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>540750</v>
+      </c>
+      <c r="J11" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>79</v>
+      </c>
+      <c r="K11" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>432600</v>
+      </c>
+      <c r="L11" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>108150</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>600000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>298</v>
+      </c>
+      <c r="H12" s="2">
+        <f>Table1[[#This Row],[Purchased Price]]*125%</f>
+        <v>1500</v>
+      </c>
+      <c r="I12" s="2">
+        <f>Table1[[#This Row],[Sale Price]]*Table1[[#This Row],[Sale Qty]]</f>
+        <v>447000</v>
+      </c>
+      <c r="J12" s="2">
+        <f>Table1[[#This Row],[Purchased Qty]]-Table1[[#This Row],[Sale Qty]]</f>
+        <v>202</v>
+      </c>
+      <c r="K12" s="2">
+        <f>Table1[[#This Row],[Sale Qty]]*Table1[[#This Row],[Purchased Price]]</f>
+        <v>357600</v>
+      </c>
+      <c r="L12" s="2">
+        <f>Table1[[#This Row],[Revenue]]-Table1[[#This Row],[COGS]]</f>
+        <v>89400</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s">
+        <v>39</v>
+      </c>
+      <c r="V18" t="s">
+        <v>40</v>
+      </c>
+      <c r="W18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
+        <v>540750</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5">
+        <v>432600</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
+        <v>108150</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5">
+        <v>540750</v>
+      </c>
+      <c r="V20" s="5">
+        <v>432600</v>
+      </c>
+      <c r="W20" s="5">
+        <v>108150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>684375</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5">
+        <v>547500</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
+        <v>136875</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5">
+        <v>684375</v>
+      </c>
+      <c r="V21" s="5">
+        <v>547500</v>
+      </c>
+      <c r="W21" s="5">
+        <v>136875</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
+        <v>1560937.5</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
+        <v>1248750</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5">
+        <v>312187.5</v>
+      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5">
+        <v>1560937.5</v>
+      </c>
+      <c r="V22" s="5">
+        <v>1248750</v>
+      </c>
+      <c r="W22" s="5">
+        <v>312187.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
+        <v>337812.5</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
+        <v>270250</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5">
+        <v>67562.5</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5">
+        <v>337812.5</v>
+      </c>
+      <c r="V23" s="5">
+        <v>270250</v>
+      </c>
+      <c r="W23" s="5">
+        <v>67562.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1627500</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>1302000</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
+        <v>325500</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5">
+        <v>1627500</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1302000</v>
+      </c>
+      <c r="W24" s="5">
+        <v>325500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5">
+        <v>502312.5</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>401850</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5">
+        <v>100462.5</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5">
+        <v>502312.5</v>
+      </c>
+      <c r="V25" s="5">
+        <v>401850</v>
+      </c>
+      <c r="W25" s="5">
+        <v>100462.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5">
+        <v>233750</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
+        <v>187000</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5">
+        <v>46750</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5">
+        <v>233750</v>
+      </c>
+      <c r="V26" s="5">
+        <v>187000</v>
+      </c>
+      <c r="W26" s="5">
+        <v>46750</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5">
+        <v>19800</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5">
+        <v>15840</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5">
+        <v>3960</v>
+      </c>
+      <c r="U27" s="5">
+        <v>19800</v>
+      </c>
+      <c r="V27" s="5">
+        <v>15840</v>
+      </c>
+      <c r="W27" s="5">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5">
+        <v>447000</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5">
+        <v>357600</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5">
+        <v>89400</v>
+      </c>
+      <c r="U28" s="5">
+        <v>447000</v>
+      </c>
+      <c r="V28" s="5">
+        <v>357600</v>
+      </c>
+      <c r="W28" s="5">
+        <v>89400</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5">
+        <v>770000</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <v>616000</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5">
+        <v>154000</v>
+      </c>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5">
+        <v>770000</v>
+      </c>
+      <c r="V29" s="5">
+        <v>616000</v>
+      </c>
+      <c r="W29" s="5">
+        <v>154000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="5">
+        <v>2129812.5</v>
+      </c>
+      <c r="D30" s="5">
+        <v>918125</v>
+      </c>
+      <c r="E30" s="5">
+        <v>878562.5</v>
+      </c>
+      <c r="F30" s="5">
+        <v>770000</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1560937.5</v>
+      </c>
+      <c r="H30" s="5">
+        <v>466800</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1703850</v>
+      </c>
+      <c r="J30" s="5">
+        <v>734500</v>
+      </c>
+      <c r="K30" s="5">
+        <v>702850</v>
+      </c>
+      <c r="L30" s="5">
+        <v>616000</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1248750</v>
+      </c>
+      <c r="N30" s="5">
+        <v>373440</v>
+      </c>
+      <c r="O30" s="5">
+        <v>425962.5</v>
+      </c>
+      <c r="P30" s="5">
+        <v>183625</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>175712.5</v>
+      </c>
+      <c r="R30" s="5">
+        <v>154000</v>
+      </c>
+      <c r="S30" s="5">
+        <v>312187.5</v>
+      </c>
+      <c r="T30" s="5">
+        <v>93360</v>
+      </c>
+      <c r="U30" s="5">
+        <v>6724237.5</v>
+      </c>
+      <c r="V30" s="5">
+        <v>5379390</v>
+      </c>
+      <c r="W30" s="5">
+        <v>1344847.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>